--- a/Transcripts_Excel/Major_Transcripts.xlsx
+++ b/Transcripts_Excel/Major_Transcripts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Apply Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni Amirkabir\rzninvo.github.io\Transcripts_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49573104-72C2-480A-AF24-03AA2EB1D4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62DA8FD-1777-45D2-96CB-0CF744F6636F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FF1F694-C5F7-4071-B2AE-8AA339DA3A67}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{8FF1F694-C5F7-4071-B2AE-8AA339DA3A67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Fundamental of Computer Programming</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Last Two Years</t>
+  </si>
+  <si>
+    <t>Project</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -257,11 +260,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,12 +316,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,20 +646,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDC9EE3-2432-4554-8976-5FD2041E9454}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="49.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -620,7 +670,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -635,7 +685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -650,7 +700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -665,7 +715,7 @@
         <v>33.57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -680,7 +730,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -695,7 +745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -710,7 +760,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -725,7 +775,7 @@
         <v>42.900000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -740,7 +790,7 @@
         <v>51.72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -755,7 +805,7 @@
         <v>52.019999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -770,7 +820,7 @@
         <v>43.68</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -785,7 +835,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -800,7 +850,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -815,7 +865,7 @@
         <v>49.41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -830,7 +880,7 @@
         <v>43.28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -840,15 +890,15 @@
       <c r="C16" s="4">
         <v>12.62</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="15">
         <f t="shared" ref="D16:D31" si="1">B16*C16</f>
         <v>37.86</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -858,13 +908,13 @@
       <c r="C17" s="4">
         <v>11.9</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="15">
         <f t="shared" si="1"/>
         <v>23.8</v>
       </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -874,13 +924,13 @@
       <c r="C18" s="4">
         <v>16.25</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="15">
         <f t="shared" si="1"/>
         <v>48.75</v>
       </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -890,13 +940,13 @@
       <c r="C19" s="4">
         <v>15.3</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="15">
         <f t="shared" si="1"/>
         <v>45.900000000000006</v>
       </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -906,13 +956,13 @@
       <c r="C20" s="4">
         <v>18.5</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="15">
         <f t="shared" si="1"/>
         <v>55.5</v>
       </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -922,13 +972,13 @@
       <c r="C21" s="4">
         <v>14.19</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="15">
         <f t="shared" si="1"/>
         <v>42.57</v>
       </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -938,13 +988,13 @@
       <c r="C22" s="4">
         <v>15.3</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="15">
         <f t="shared" si="1"/>
         <v>45.900000000000006</v>
       </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -954,13 +1004,13 @@
       <c r="C23" s="4">
         <v>18</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="15">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -970,13 +1020,13 @@
       <c r="C24" s="4">
         <v>16</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="15">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -986,13 +1036,13 @@
       <c r="C25" s="4">
         <v>19.670000000000002</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="15">
         <f t="shared" si="1"/>
         <v>19.670000000000002</v>
       </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1002,13 +1052,13 @@
       <c r="C26" s="4">
         <v>20</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1018,13 +1068,13 @@
       <c r="C27" s="4">
         <v>14.29</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="15">
         <f t="shared" si="1"/>
         <v>42.87</v>
       </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1034,13 +1084,13 @@
       <c r="C28" s="4">
         <v>17</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="15">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -1050,13 +1100,13 @@
       <c r="C29" s="4">
         <v>18.8</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="15">
         <f t="shared" si="1"/>
         <v>56.400000000000006</v>
       </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
@@ -1066,13 +1116,13 @@
       <c r="C30" s="4">
         <v>18.25</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="15">
         <f t="shared" si="1"/>
         <v>54.75</v>
       </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
@@ -1082,13 +1132,13 @@
       <c r="C31" s="4">
         <v>20</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="15">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
@@ -1098,75 +1148,91 @@
       <c r="C32" s="4">
         <v>17.75</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="15">
         <f>B32*C32</f>
         <v>53.25</v>
       </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="4">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="D33" s="4">
+        <f>B33*C33</f>
+        <v>58.5</v>
+      </c>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="1">
-        <f>SUM(B2:B32)</f>
-        <v>93</v>
-      </c>
-      <c r="D33" s="1">
-        <f>SUM(D2:D32)</f>
-        <v>1467.1999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="B34" s="1">
+        <f>SUM(B2:B33)</f>
+        <v>96</v>
+      </c>
+      <c r="D34" s="1">
+        <f>SUM(D2:D33)</f>
+        <v>1525.6999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="1">
-        <f>SUM(B16:B32)</f>
-        <v>46</v>
-      </c>
-      <c r="D34" s="1">
-        <f>SUM(D16:D32)</f>
-        <v>760.21999999999991</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+      <c r="B35" s="1">
+        <f>SUM(B16:B33)</f>
+        <v>49</v>
+      </c>
+      <c r="D35" s="1">
+        <f>SUM(D16:D33)</f>
+        <v>818.71999999999991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="11">
-        <f xml:space="preserve"> D33 / B33</f>
-        <v>15.776344086021503</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="B37" s="10">
+        <f xml:space="preserve"> D34 / B34</f>
+        <v>15.892708333333331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="11">
-        <v>3.31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="B38" s="10">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="11">
-        <f xml:space="preserve"> D34 / B34</f>
-        <v>16.526521739130434</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+      <c r="B40" s="10">
+        <f xml:space="preserve"> D35 / B35</f>
+        <v>16.708571428571428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="11">
-        <v>3.51</v>
+      <c r="B41" s="10">
+        <v>3.54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E16:E32"/>
+    <mergeCell ref="E16:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
